--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,25 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>customer_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
@@ -458,418 +463,523 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>CUST-101</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Valid User 1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1001</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>CUST-102</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Valid User 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1002</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>CUST-103</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Valid User 3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1003</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>CUST-104</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Valid User 4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1004</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>CUST-105</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Valid User 5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1005</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>CUST-106</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Valid User 6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1006</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>CUST-107</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Valid User 7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1007</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>CUST-108</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Valid User 8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1008</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>CUST-109</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Valid User 9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1009</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>CUST-110</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Valid User 10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>1010</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>CUST-111</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Valid User 11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1011</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>CUST-112</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Valid User 12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1012</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>CUST-113</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Valid User 13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>1013</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>CUST-114</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Valid User 14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>1014</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>CUST-115</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Valid User 15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>1015</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>CUST-116</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Valid User 16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>1016</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>CUST-117</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Valid User 17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>1017</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>CUST-118</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Valid User 18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>1018</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>CUST-119</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Valid User 19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>1019</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>CUST-120</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Valid User 20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>1020</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2026-01-10 10:00:00</t>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Valid User 1</t>
+          <t>CUST-101</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Duplicate Code User</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>500</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
@@ -878,20 +988,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Type Error User</t>
+          <t>WRONG_99</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Pattern Fail User</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>INVALID_STRING</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>200</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2026-01-12</t>
         </is>
@@ -900,3558 +1013,4448 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bad Date User</t>
+          <t>CUST-500</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>200</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Not-A-Date</t>
+          <t>Suspend Fail</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>suspend</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CUST-600</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Crazy Date User</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>active</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>300</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
+      <c r="D25" t="n">
+        <v>100</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4654654.23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>XXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXX</t>
+          <t>CUST-1025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>400</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
+          <t>Random User 25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Wrong Status User</t>
+          <t>CUST-1026</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>unknown_status</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>100</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
+          <t>Random User 26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>52</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Suspend Fail</t>
+          <t>CUST-1027</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>suspend</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>9999</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
+          <t>Random User 27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>54</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Suspend Pass</t>
+          <t>CUST-1028</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>suspend</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
+          <t>Random User 28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>56</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Future Date User</t>
+          <t>CUST-1029</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>100</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2027-01-01</t>
+          <t>Random User 29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>58</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Extreme Excel Date</t>
+          <t>CUST-1030</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>100</v>
+          <t>Random User 30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
       </c>
       <c r="D31" t="n">
-        <v>4654654.23</v>
+        <v>60</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>CUST-1031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Random User 31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>155</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>62</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>CUST-1032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Random User 32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>160</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>64</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>CUST-1033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Random User 33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>165</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>66</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>CUST-1034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Random User 34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>170</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>68</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>CUST-1035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Random User 35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>175</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>70</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>CUST-1036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>Random User 36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>180</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>72</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>CUST-1037</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Random User 37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>185</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>74</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>CUST-1038</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>Random User 38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>190</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>76</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>CUST-1039</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Random User 39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>195</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>78</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>CUST-1040</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Random User 40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>200</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>80</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>CUST-1041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Random User 41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>205</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>82</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>CUST-1042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Random User 42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>210</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>84</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>CUST-1043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Random User 43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>215</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>86</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>CUST-1044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Random User 44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>220</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>88</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>CUST-1045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Random User 45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>225</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>90</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>CUST-1046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Random User 46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>230</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>92</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>CUST-1047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Random User 47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>235</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>94</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>CUST-1048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Random User 48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>240</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>96</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>CUST-1049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Random User 49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>245</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>98</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>CUST-1050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>Random User 50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>250</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>100</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>CUST-1051</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>Random User 51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>255</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>102</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>CUST-1052</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>Random User 52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>260</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>104</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>CUST-1053</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>Random User 53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>265</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>106</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>CUST-1054</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>Random User 54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>270</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>108</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>CUST-1055</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>Random User 55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>275</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>110</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>CUST-1056</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>Random User 56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>280</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>112</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>CUST-1057</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>Random User 57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>285</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>114</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>CUST-1058</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>Random User 58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>290</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>116</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>CUST-1059</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>Random User 59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>295</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>118</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>CUST-1060</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>Random User 60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>300</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>120</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>CUST-1061</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>Random User 61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>305</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>122</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>CUST-1062</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>Random User 62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>310</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>124</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>CUST-1063</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>Random User 63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>315</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>126</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>CUST-1064</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>Random User 64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>320</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>128</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>CUST-1065</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>Random User 65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>325</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>130</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>CUST-1066</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>Random User 66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>330</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>132</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>CUST-1067</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>Random User 67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>335</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>134</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>CUST-1068</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>Random User 68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>340</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>136</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>CUST-1069</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>Random User 69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>345</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>138</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>CUST-1070</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>Random User 70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>350</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>140</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>CUST-1071</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>Random User 71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>355</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>142</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>CUST-1072</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>Random User 72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>360</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>144</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>CUST-1073</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>Random User 73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>365</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>146</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>CUST-1074</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>Random User 74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>370</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>148</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>CUST-1075</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>Random User 75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>375</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>150</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>CUST-1076</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
           <t>Random User 76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>380</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>152</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>CUST-1077</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>Random User 77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>385</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>154</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>CUST-1078</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
           <t>Random User 78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>390</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>156</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>CUST-1079</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>Random User 79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>395</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>158</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>CUST-1080</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>Random User 80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>400</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>160</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>CUST-1081</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>Random User 81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>405</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>162</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>CUST-1082</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
           <t>Random User 82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>410</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>164</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>CUST-1083</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
           <t>Random User 83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>415</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>166</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>CUST-1084</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>Random User 84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>420</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>168</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>CUST-1085</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>Random User 85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>425</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>170</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>CUST-1086</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>Random User 86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>430</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>172</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>CUST-1087</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>Random User 87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>435</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>174</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>CUST-1088</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>Random User 88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>440</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>176</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>CUST-1089</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>Random User 89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>445</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>178</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>CUST-1090</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>Random User 90</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>450</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>180</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>CUST-1091</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>Random User 91</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>455</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>182</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>CUST-1092</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>Random User 92</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>460</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>184</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>CUST-1093</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>Random User 93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>465</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>186</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>CUST-1094</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>Random User 94</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>470</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>188</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>CUST-1095</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>Random User 95</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>475</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>190</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>CUST-1096</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>Random User 96</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>480</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>192</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>CUST-1097</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>Random User 97</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>485</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>194</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>CUST-1098</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>Random User 98</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>490</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>196</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>CUST-1099</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
           <t>Random User 99</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>495</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>198</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>CUST-1100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>Random User 100</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>500</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>200</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>CUST-1101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
           <t>Random User 101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>505</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>202</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>CUST-1102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
           <t>Random User 102</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>510</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>204</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>CUST-1103</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>Random User 103</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>515</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>206</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>CUST-1104</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
           <t>Random User 104</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>520</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>208</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>CUST-1105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
           <t>Random User 105</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>525</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>210</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
+          <t>CUST-1106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
           <t>Random User 106</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>530</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>212</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>CUST-1107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>Random User 107</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>535</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>214</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>CUST-1108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
           <t>Random User 108</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>540</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>216</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>CUST-1109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
           <t>Random User 109</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>545</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>218</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>CUST-1110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>Random User 110</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>550</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>220</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>CUST-1111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
           <t>Random User 111</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>555</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>222</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>CUST-1112</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
           <t>Random User 112</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>560</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>224</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>CUST-1113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
           <t>Random User 113</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>565</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>226</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>CUST-1114</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>Random User 114</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>570</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>228</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>CUST-1115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>Random User 115</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>575</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>230</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>CUST-1116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>Random User 116</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>580</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>232</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>CUST-1117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>Random User 117</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>585</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>234</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>CUST-1118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
           <t>Random User 118</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>590</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>236</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>CUST-1119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
           <t>Random User 119</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>595</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>238</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
+          <t>CUST-1120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
           <t>Random User 120</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>600</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>240</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>CUST-1121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
           <t>Random User 121</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>605</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>242</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>CUST-1122</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
           <t>Random User 122</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>610</v>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>244</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>CUST-1123</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
           <t>Random User 123</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>615</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>246</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>CUST-1124</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>Random User 124</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>620</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>248</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>CUST-1125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
           <t>Random User 125</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>625</v>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>250</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>CUST-1126</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>Random User 126</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>630</v>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>252</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>CUST-1127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
           <t>Random User 127</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>635</v>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>254</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>CUST-1128</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
           <t>Random User 128</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>640</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>256</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>CUST-1129</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
           <t>Random User 129</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>645</v>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>258</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>CUST-1130</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
           <t>Random User 130</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>650</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>260</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>CUST-1131</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
           <t>Random User 131</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>655</v>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>262</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>CUST-1132</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>Random User 132</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>660</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>264</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>CUST-1133</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t>Random User 133</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>665</v>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>266</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>CUST-1134</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
           <t>Random User 134</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>670</v>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>268</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
+          <t>CUST-1135</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
           <t>Random User 135</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>675</v>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>270</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
+          <t>CUST-1136</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
           <t>Random User 136</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>680</v>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>272</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
+          <t>CUST-1137</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
           <t>Random User 137</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>685</v>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>274</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>CUST-1138</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>Random User 138</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>690</v>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>276</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>CUST-1139</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
           <t>Random User 139</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>695</v>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>278</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>CUST-1140</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
           <t>Random User 140</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>700</v>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>280</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>CUST-1141</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
           <t>Random User 141</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>705</v>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>282</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
+          <t>CUST-1142</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
           <t>Random User 142</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>710</v>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>284</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
+          <t>CUST-1143</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
           <t>Random User 143</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>715</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>286</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>CUST-1144</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
           <t>Random User 144</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>720</v>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>288</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>CUST-1145</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
           <t>Random User 145</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>725</v>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>290</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
+          <t>CUST-1146</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
           <t>Random User 146</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>730</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>292</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>CUST-1147</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
           <t>Random User 147</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>735</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>294</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
+          <t>CUST-1148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
           <t>Random User 148</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>740</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>296</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t>CUST-1149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
           <t>Random User 149</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>745</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>298</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>CUST-1150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
           <t>Random User 150</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>750</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>300</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
+          <t>CUST-1151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
           <t>Random User 151</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>755</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>302</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
+          <t>CUST-1152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
           <t>Random User 152</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>760</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>304</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>CUST-1153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
           <t>Random User 153</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>765</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>306</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
+          <t>CUST-1154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
           <t>Random User 154</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>770</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>308</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
+          <t>CUST-1155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
           <t>Random User 155</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>775</v>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>310</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>CUST-1156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
           <t>Random User 156</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>780</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>312</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>CUST-1157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
           <t>Random User 157</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>785</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>314</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
+          <t>CUST-1158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
           <t>Random User 158</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>790</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>316</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
+          <t>CUST-1159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
           <t>Random User 159</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>795</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>318</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
+          <t>CUST-1160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
           <t>Random User 160</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>800</v>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>320</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
+          <t>CUST-1161</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
           <t>Random User 161</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>805</v>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>322</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
+          <t>CUST-1162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
           <t>Random User 162</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>810</v>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>324</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
+          <t>CUST-1163</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
           <t>Random User 163</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>815</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>326</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>CUST-1164</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
           <t>Random User 164</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>820</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>328</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
+          <t>CUST-1165</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>Random User 165</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>825</v>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>330</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>CUST-1166</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
           <t>Random User 166</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>830</v>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>332</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
+          <t>CUST-1167</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
           <t>Random User 167</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>835</v>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>334</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
+          <t>CUST-1168</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
           <t>Random User 168</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>840</v>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>336</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
+          <t>CUST-1169</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
           <t>Random User 169</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>845</v>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>338</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>CUST-1170</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
           <t>Random User 170</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>850</v>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>340</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
+          <t>CUST-1171</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
           <t>Random User 171</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>855</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>342</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>CUST-1172</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
           <t>Random User 172</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>860</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>344</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>CUST-1173</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>Random User 173</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>865</v>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>346</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
+          <t>CUST-1174</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
           <t>Random User 174</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>870</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>348</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
+          <t>CUST-1175</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
           <t>Random User 175</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>875</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>350</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>CUST-1176</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
           <t>Random User 176</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>880</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>352</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
+          <t>CUST-1177</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
           <t>Random User 177</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>885</v>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>354</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
+          <t>CUST-1178</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
           <t>Random User 178</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>890</v>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>356</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
+          <t>CUST-1179</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
           <t>Random User 179</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>895</v>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>358</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
+          <t>CUST-1180</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>Random User 180</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>900</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>360</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
+          <t>CUST-1181</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
           <t>Random User 181</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>905</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>362</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
+          <t>CUST-1182</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
           <t>Random User 182</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>910</v>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>364</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
+          <t>CUST-1183</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
           <t>Random User 183</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>915</v>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>366</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>CUST-1184</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
           <t>Random User 184</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>920</v>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>368</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>CUST-1185</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
           <t>Random User 185</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>925</v>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>370</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
+          <t>CUST-1186</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
           <t>Random User 186</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>930</v>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>372</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>CUST-1187</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
           <t>Random User 187</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>935</v>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>374</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>CUST-1188</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
           <t>Random User 188</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>940</v>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>376</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
+          <t>CUST-1189</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
           <t>Random User 189</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>945</v>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>378</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>CUST-1190</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
           <t>Random User 190</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>950</v>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>380</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
+          <t>CUST-1191</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
           <t>Random User 191</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>955</v>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>382</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
+          <t>CUST-1192</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
           <t>Random User 192</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>960</v>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>384</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
+          <t>CUST-1193</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
           <t>Random User 193</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>965</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>386</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
+          <t>CUST-1194</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
           <t>Random User 194</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>970</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>388</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
+          <t>CUST-1195</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
           <t>Random User 195</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>975</v>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>390</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
+          <t>CUST-1196</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
           <t>Random User 196</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>980</v>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>392</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
+          <t>CUST-1197</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
           <t>Random User 197</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>985</v>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>394</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
+          <t>CUST-1198</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
           <t>Random User 198</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>990</v>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>396</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
+          <t>CUST-1199</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
           <t>Random User 199</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>995</v>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>398</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
+          <t>CUST-1200</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
           <t>Random User 200</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>400</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
         </is>
       </c>
     </row>

--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,372 +473,372 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PRJ-201</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CUST-100</t>
+          <t>CUST-201</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>INV-1</t>
+          <t>INV-1001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Global Corp</t>
+          <t>Valid Customer 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-06-15</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-102</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CUST-100</t>
+          <t>CUST-202</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>INV-2</t>
+          <t>INV-1002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Global Corp</t>
+          <t>Valid Customer 2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-06-15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PRJ-203</t>
+          <t>PRJ-103</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CUST-100</t>
+          <t>CUST-203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>INV-3</t>
+          <t>INV-1003</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Global Corp</t>
+          <t>Valid Customer 3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-06-15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PRJ-204</t>
+          <t>PRJ-104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CUST-100</t>
+          <t>CUST-204</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>INV-4</t>
+          <t>INV-1004</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Global Corp</t>
+          <t>Valid Customer 4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-06-15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PRJ-205</t>
+          <t>PRJ-105</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CUST-100</t>
+          <t>CUST-205</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>INV-5</t>
+          <t>INV-1005</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Global Corp</t>
+          <t>Valid Customer 5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-06-15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PRJ-206</t>
+          <t>PRJ-106</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CUST-100</t>
+          <t>CUST-206</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>INV-6</t>
+          <t>INV-1006</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Global Corp</t>
+          <t>Valid Customer 6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-06-15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PRJ-207</t>
+          <t>PRJ-107</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CUST-100</t>
+          <t>CUST-207</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>INV-7</t>
+          <t>INV-1007</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Global Corp</t>
+          <t>Valid Customer 7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-06-15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PRJ-208</t>
+          <t>PRJ-108</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CUST-100</t>
+          <t>CUST-208</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>INV-8</t>
+          <t>INV-1008</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Global Corp</t>
+          <t>Valid Customer 8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-06-15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PRJ-209</t>
+          <t>PRJ-109</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CUST-100</t>
+          <t>CUST-209</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>INV-9</t>
+          <t>INV-1009</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Global Corp</t>
+          <t>Valid Customer 9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-06-15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PRJ-210</t>
+          <t>PRJ-110</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CUST-100</t>
+          <t>CUST-210</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>INV-10</t>
+          <t>INV-1010</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Global Corp</t>
+          <t>Valid Customer 10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-06-15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PRJ-500</t>
+          <t>PRJ-111</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CUST-100</t>
+          <t>CUST-211</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>INV-1</t>
+          <t>INV-1011</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Valid Customer 11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -847,46 +847,6624 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-06-15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PRJ-600</t>
+          <t>PRJ-112</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CUST-200</t>
+          <t>CUST-212</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>INV-99</t>
+          <t>INV-1012</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Suspend Fail</t>
+          <t>Valid Customer 12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PRJ-113</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CUST-213</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>INV-1013</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Valid Customer 13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PRJ-114</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CUST-214</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>INV-1014</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Valid Customer 14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PRJ-115</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CUST-215</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>INV-1015</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Valid Customer 15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PRJ-116</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CUST-216</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>INV-1016</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Valid Customer 16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PRJ-117</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CUST-217</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INV-1017</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Valid Customer 17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PRJ-118</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CUST-218</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INV-1018</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Valid Customer 18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PRJ-119</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CUST-219</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INV-1019</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Valid Customer 19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PRJ-120</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CUST-220</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INV-1020</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Valid Customer 20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PRJ-121</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CUST-221</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>INV-1021</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Valid Customer 21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PRJ-122</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CUST-222</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>INV-1022</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Valid Customer 22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PRJ-123</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CUST-223</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>INV-1023</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Valid Customer 23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PRJ-124</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CUST-224</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>INV-1024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Valid Customer 24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PRJ-125</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CUST-225</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>INV-1025</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Valid Customer 25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PRJ-126</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CUST-226</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>INV-1026</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Valid Customer 26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PRJ-127</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CUST-227</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>INV-1027</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Valid Customer 27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PRJ-128</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CUST-228</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>INV-1028</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Valid Customer 28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PRJ-129</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CUST-229</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>INV-1029</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Valid Customer 29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PRJ-130</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CUST-230</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>INV-1030</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Valid Customer 30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PRJ-999</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CUST-999</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>INV-2000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Missing Amount</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PRJ-999</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CUST-999</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>INV-2001</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wrong Amount Type</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TEN_DOLLARS</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>WRONG-FORMAT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CUST-888</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>INV-3000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Bad Project Pattern</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>100</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PRJ-888</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CUST-888</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>INV-3001</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Ab</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PRJ-777</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CUST-777</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>INV-4000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Suspend With Amount Fail</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>suspend</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F36" t="n">
+        <v>500.5</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PRJ-777</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CUST-777</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>INV-4001</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Suspend With Zero Success</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>suspend</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PRJ-666</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CUST-666</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>INV-5000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Future Date Fail</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>100</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2027-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PRJ-666</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CUST-667</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>INV-5001</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Excel Serial Date Fail</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>100</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4654654.23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PRJ-555</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CUST-555</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>INV-UNIQUE-1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Unique Invoice</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>100</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PRJ-555</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CUST-555</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>INV-UNIQUE-1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Duplicate Invoice Fail</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PRJ-2041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CUST-3041</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>INV-5041</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Automated User 41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>9254</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PRJ-2042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CUST-3042</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>INV-5042</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Automated User 42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>9568</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PRJ-2043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CUST-3043</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>INV-5043</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Automated User 43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1253</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PRJ-2044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CUST-3044</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>INV-5044</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Automated User 44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>7261</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PRJ-2045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CUST-3045</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>INV-5045</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Automated User 45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>6834</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PRJ-2046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CUST-3046</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>INV-5046</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Automated User 46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>7403</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PRJ-2047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CUST-3047</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>INV-5047</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Automated User 47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1225</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PRJ-2048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CUST-3048</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>INV-5048</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Automated User 48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>6126</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PRJ-2049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CUST-3049</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>INV-5049</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Automated User 49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>5328</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PRJ-2050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CUST-3050</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>INV-5050</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Automated User 50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>7513</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PRJ-2051</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CUST-3051</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>INV-5051</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Automated User 51</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2252</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PRJ-2052</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CUST-3052</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>INV-5052</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Automated User 52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>9763</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PRJ-2053</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CUST-3053</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>INV-5053</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Automated User 53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>6182</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PRJ-2054</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CUST-3054</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>INV-5054</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Automated User 54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>7632</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PRJ-2055</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CUST-3055</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>INV-5055</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Automated User 55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>7129</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PRJ-2056</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CUST-3056</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>INV-5056</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Automated User 56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>6960</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PRJ-2057</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CUST-3057</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>INV-5057</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Automated User 57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>7808</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PRJ-2058</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CUST-3058</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>INV-5058</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Automated User 58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>3395</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PRJ-2059</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CUST-3059</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>INV-5059</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Automated User 59</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>2088</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PRJ-2060</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CUST-3060</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>INV-5060</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Automated User 60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>5652</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PRJ-2061</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CUST-3061</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>INV-5061</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Automated User 61</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>8462</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PRJ-2062</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CUST-3062</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>INV-5062</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Automated User 62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>3835</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PRJ-2063</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CUST-3063</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>INV-5063</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Automated User 63</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>6332</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PRJ-2064</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CUST-3064</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>INV-5064</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Automated User 64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>2380</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PRJ-2065</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CUST-3065</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>INV-5065</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Automated User 65</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>981</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PRJ-2066</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CUST-3066</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>INV-5066</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Automated User 66</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>708</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PRJ-2067</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CUST-3067</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>INV-5067</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Automated User 67</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>827</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PRJ-2068</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CUST-3068</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>INV-5068</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Automated User 68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>812</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PRJ-2069</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CUST-3069</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>INV-5069</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Automated User 69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>7353</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PRJ-2070</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CUST-3070</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>INV-5070</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Automated User 70</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>5220</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PRJ-2071</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CUST-3071</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>INV-5071</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Automated User 71</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>7011</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PRJ-2072</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CUST-3072</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>INV-5072</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Automated User 72</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>3898</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PRJ-2073</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CUST-3073</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>INV-5073</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Automated User 73</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>4189</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PRJ-2074</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CUST-3074</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>INV-5074</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Automated User 74</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>2913</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PRJ-2075</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CUST-3075</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>INV-5075</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Automated User 75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>4294</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PRJ-2076</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CUST-3076</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>INV-5076</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Automated User 76</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>9737</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PRJ-2077</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CUST-3077</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>INV-5077</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Automated User 77</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>9444</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PRJ-2078</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CUST-3078</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>INV-5078</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Automated User 78</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>4699</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PRJ-2079</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CUST-3079</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>INV-5079</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Automated User 79</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>3191</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PRJ-2080</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CUST-3080</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>INV-5080</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Automated User 80</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>3012</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PRJ-2081</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CUST-3081</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>INV-5081</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Automated User 81</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1238</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PRJ-2082</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CUST-3082</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>INV-5082</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Automated User 82</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1275</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PRJ-2083</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CUST-3083</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>INV-5083</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Automated User 83</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>633</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PRJ-2084</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CUST-3084</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>INV-5084</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Automated User 84</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>783</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PRJ-2085</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CUST-3085</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>INV-5085</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Automated User 85</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>7126</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PRJ-2086</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CUST-3086</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>INV-5086</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Automated User 86</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>6232</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PRJ-2087</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CUST-3087</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>INV-5087</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Automated User 87</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>7332</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PRJ-2088</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CUST-3088</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>INV-5088</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Automated User 88</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>527</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PRJ-2089</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CUST-3089</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>INV-5089</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Automated User 89</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>567</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PRJ-2090</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CUST-3090</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>INV-5090</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Automated User 90</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>2580</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>PRJ-2091</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CUST-3091</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>INV-5091</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Automated User 91</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>9084</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PRJ-2092</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CUST-3092</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>INV-5092</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Automated User 92</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>2907</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>PRJ-2093</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CUST-3093</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>INV-5093</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Automated User 93</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1158</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>PRJ-2094</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CUST-3094</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>INV-5094</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Automated User 94</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>9046</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>PRJ-2095</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CUST-3095</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>INV-5095</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Automated User 95</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>5385</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>PRJ-2096</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CUST-3096</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>INV-5096</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Automated User 96</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>4385</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>PRJ-2097</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CUST-3097</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>INV-5097</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Automated User 97</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>409</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PRJ-2098</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CUST-3098</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>INV-5098</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Automated User 98</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>8208</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PRJ-2099</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CUST-3099</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>INV-5099</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Automated User 99</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>6191</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>PRJ-2100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CUST-3100</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>INV-5100</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Automated User 100</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>3453</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>PRJ-2101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CUST-3101</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>INV-5101</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Automated User 101</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>8343</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>PRJ-2102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CUST-3102</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>INV-5102</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Automated User 102</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>7685</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>PRJ-2103</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>CUST-3103</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>INV-5103</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Automated User 103</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>7513</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>PRJ-2104</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CUST-3104</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>INV-5104</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Automated User 104</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>109</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>PRJ-2105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CUST-3105</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>INV-5105</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Automated User 105</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>9220</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>PRJ-2106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CUST-3106</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>INV-5106</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Automated User 106</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>3017</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>PRJ-2107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CUST-3107</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>INV-5107</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Automated User 107</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>7361</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>PRJ-2108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CUST-3108</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>INV-5108</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Automated User 108</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>2267</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>PRJ-2109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CUST-3109</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>INV-5109</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Automated User 109</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>2186</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>PRJ-2110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>CUST-3110</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>INV-5110</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Automated User 110</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>PRJ-2111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>CUST-3111</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>INV-5111</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Automated User 111</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>7998</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>PRJ-2112</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>CUST-3112</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>INV-5112</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Automated User 112</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>7727</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>PRJ-2113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>CUST-3113</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>INV-5113</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Automated User 113</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>5968</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>PRJ-2114</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>CUST-3114</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>INV-5114</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Automated User 114</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>2675</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>PRJ-2115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>CUST-3115</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>INV-5115</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Automated User 115</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>9831</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>PRJ-2116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>CUST-3116</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>INV-5116</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Automated User 116</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1627</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>PRJ-2117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>CUST-3117</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>INV-5117</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Automated User 117</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>6942</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>PRJ-2118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>CUST-3118</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>INV-5118</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Automated User 118</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>7620</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PRJ-2119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>CUST-3119</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>INV-5119</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Automated User 119</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>4324</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>PRJ-2120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>CUST-3120</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>INV-5120</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Automated User 120</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>8925</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>PRJ-2121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>CUST-3121</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>INV-5121</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Automated User 121</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>6578</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>PRJ-2122</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>CUST-3122</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>INV-5122</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Automated User 122</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>2149</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>PRJ-2123</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>CUST-3123</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>INV-5123</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Automated User 123</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>6346</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>PRJ-2124</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>CUST-3124</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>INV-5124</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Automated User 124</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>997</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>PRJ-2125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CUST-3125</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>INV-5125</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Automated User 125</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>9193</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>PRJ-2126</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CUST-3126</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>INV-5126</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Automated User 126</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>112</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>PRJ-2127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CUST-3127</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>INV-5127</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Automated User 127</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>2306</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>PRJ-2128</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CUST-3128</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>INV-5128</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Automated User 128</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>8331</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>PRJ-2129</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>CUST-3129</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>INV-5129</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Automated User 129</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>727</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>PRJ-2130</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CUST-3130</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>INV-5130</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Automated User 130</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>8385</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>PRJ-2131</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CUST-3131</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>INV-5131</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Automated User 131</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>6623</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PRJ-2132</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>CUST-3132</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>INV-5132</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Automated User 132</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>2815</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PRJ-2133</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>CUST-3133</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>INV-5133</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Automated User 133</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>681</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>PRJ-2134</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>CUST-3134</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>INV-5134</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Automated User 134</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>9185</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PRJ-2135</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>CUST-3135</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>INV-5135</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Automated User 135</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>705</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>PRJ-2136</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>CUST-3136</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>INV-5136</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Automated User 136</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>2744</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>PRJ-2137</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>CUST-3137</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>INV-5137</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Automated User 137</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1963</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>PRJ-2138</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>CUST-3138</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>INV-5138</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Automated User 138</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>969</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>PRJ-2139</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>CUST-3139</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>INV-5139</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Automated User 139</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>5989</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>PRJ-2140</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>CUST-3140</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>INV-5140</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Automated User 140</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>2589</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>PRJ-2141</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>CUST-3141</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>INV-5141</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Automated User 141</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>7525</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>PRJ-2142</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>CUST-3142</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>INV-5142</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Automated User 142</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>3919</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>PRJ-2143</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>CUST-3143</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>INV-5143</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Automated User 143</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>7988</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>PRJ-2144</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>CUST-3144</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>INV-5144</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Automated User 144</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>5518</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>PRJ-2145</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>CUST-3145</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>INV-5145</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Automated User 145</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>2039</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>PRJ-2146</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>CUST-3146</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>INV-5146</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Automated User 146</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>2753</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>PRJ-2147</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>CUST-3147</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>INV-5147</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Automated User 147</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>2531</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>PRJ-2148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>CUST-3148</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>INV-5148</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Automated User 148</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>5001</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>PRJ-2149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>CUST-3149</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>INV-5149</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Automated User 149</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>1391</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>PRJ-2150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>CUST-3150</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>INV-5150</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Automated User 150</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>8301</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>PRJ-2151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>CUST-3151</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>INV-5151</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Automated User 151</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>4162</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>PRJ-2152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>CUST-3152</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>INV-5152</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Automated User 152</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>2846</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>PRJ-2153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>CUST-3153</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>INV-5153</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Automated User 153</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>9660</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>PRJ-2154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>CUST-3154</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>INV-5154</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Automated User 154</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>1073</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>PRJ-2155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>CUST-3155</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>INV-5155</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Automated User 155</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>2773</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>PRJ-2156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>CUST-3156</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>INV-5156</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Automated User 156</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>8839</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>PRJ-2157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>CUST-3157</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>INV-5157</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Automated User 157</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>5090</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>PRJ-2158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>CUST-3158</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>INV-5158</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Automated User 158</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>7645</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>PRJ-2159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>CUST-3159</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>INV-5159</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Automated User 159</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>6944</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>PRJ-2160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>CUST-3160</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>INV-5160</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Automated User 160</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>5454</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>PRJ-2161</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>CUST-3161</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>INV-5161</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Automated User 161</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>9624</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>PRJ-2162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>CUST-3162</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>INV-5162</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Automated User 162</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>6883</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>PRJ-2163</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>CUST-3163</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>INV-5163</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Automated User 163</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>2086</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>PRJ-2164</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>CUST-3164</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>INV-5164</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Automated User 164</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>9802</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>PRJ-2165</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>CUST-3165</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>INV-5165</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Automated User 165</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>517</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>PRJ-2166</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>CUST-3166</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>INV-5166</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Automated User 166</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>4151</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>PRJ-2167</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>CUST-3167</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>INV-5167</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Automated User 167</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>6530</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>PRJ-2168</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>CUST-3168</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>INV-5168</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Automated User 168</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>3861</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>PRJ-2169</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>CUST-3169</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>INV-5169</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Automated User 169</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>7102</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>PRJ-2170</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>CUST-3170</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>INV-5170</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Automated User 170</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>482</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>PRJ-2171</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>CUST-3171</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>INV-5171</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Automated User 171</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>7257</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>PRJ-2172</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>CUST-3172</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>INV-5172</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Automated User 172</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>4740</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>PRJ-2173</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>CUST-3173</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>INV-5173</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Automated User 173</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>2146</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>PRJ-2174</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>CUST-3174</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>INV-5174</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Automated User 174</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>3873</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>PRJ-2175</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>CUST-3175</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>INV-5175</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Automated User 175</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>4821</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>PRJ-2176</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>CUST-3176</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>INV-5176</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Automated User 176</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>803</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>PRJ-2177</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>CUST-3177</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>INV-5177</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Automated User 177</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>9076</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>PRJ-2178</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>CUST-3178</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>INV-5178</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Automated User 178</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>3004</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>PRJ-2179</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>CUST-3179</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>INV-5179</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Automated User 179</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>4580</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>PRJ-2180</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>CUST-3180</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>INV-5180</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Automated User 180</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>1032</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>PRJ-2181</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>CUST-3181</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>INV-5181</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Automated User 181</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>6974</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>PRJ-2182</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>CUST-3182</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>INV-5182</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Automated User 182</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>3163</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>PRJ-2183</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>CUST-3183</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>INV-5183</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Automated User 183</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>PRJ-2184</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>CUST-3184</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>INV-5184</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Automated User 184</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>1646</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>PRJ-2185</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>CUST-3185</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>INV-5185</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Automated User 185</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>9121</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>PRJ-2186</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>CUST-3186</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>INV-5186</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Automated User 186</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>1222</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>PRJ-2187</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>CUST-3187</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>INV-5187</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Automated User 187</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>4667</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>PRJ-2188</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>CUST-3188</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>INV-5188</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Automated User 188</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>5343</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>PRJ-2189</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>CUST-3189</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>INV-5189</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Automated User 189</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>3979</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>PRJ-2190</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>CUST-3190</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>INV-5190</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Automated User 190</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>7806</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>PRJ-2191</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>CUST-3191</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>INV-5191</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Automated User 191</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>5247</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>PRJ-2192</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>CUST-3192</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>INV-5192</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Automated User 192</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>2342</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>PRJ-2193</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>CUST-3193</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>INV-5193</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Automated User 193</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>9701</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>PRJ-2194</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>CUST-3194</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>INV-5194</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Automated User 194</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>9242</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>PRJ-2195</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>CUST-3195</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>INV-5195</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Automated User 195</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>2168</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>PRJ-2196</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>CUST-3196</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>INV-5196</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Automated User 196</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>PRJ-2197</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>CUST-3197</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>INV-5197</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Automated User 197</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>7562</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>PRJ-2198</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>CUST-3198</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>INV-5198</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Automated User 198</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>2529</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>PRJ-2199</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>CUST-3199</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>INV-5199</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Automated User 199</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>6947</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>PRJ-2200</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>CUST-3200</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>INV-5200</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Automated User 200</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>2895</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>

--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="810">
   <si>
     <t>project_code</t>
   </si>
@@ -2446,6 +2446,9 @@
   </si>
   <si>
     <t>sd</t>
+  </si>
+  <si>
+    <t>Test dup</t>
   </si>
 </sst>
 </file>
@@ -2501,11 +2504,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2808,13 +2812,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -7436,6 +7444,29 @@
         <v>169</v>
       </c>
     </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>803</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" t="s">
+        <v>809</v>
+      </c>
+      <c r="E202" t="s">
+        <v>190</v>
+      </c>
+      <c r="F202">
+        <v>432</v>
+      </c>
+      <c r="G202" s="2">
+        <v>45945</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
